--- a/results/I3_N5_M2_T45_C100_DepCentral_s4_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepCentral_s4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1849.292496819582</v>
+        <v>1094.391386707094</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.083999872207642</v>
+        <v>1.014000177383423</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2.714627033277629e-12</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.13975264516096</v>
+        <v>23.42188413403032</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.01522982014706</v>
+        <v>7.380784773767238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.427973994047179</v>
+        <v>4.350287346831242</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1790.020000000521</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.72</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,56 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -766,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -777,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -868,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -959,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39.23516695818518</v>
+        <v>34.05123405644734</v>
       </c>
     </row>
     <row r="5">
@@ -975,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>32.43528232449534</v>
       </c>
     </row>
     <row r="7">
@@ -983,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>39.85439022078044</v>
+        <v>32.46902814888762</v>
       </c>
     </row>
     <row r="8">
@@ -1013,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1045,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1059,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1073,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1087,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1107,7 +1063,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1115,13 +1071,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1129,13 +1085,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1143,13 +1099,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1157,13 +1113,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1171,127 +1127,15 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>6</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1394,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000117</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1405,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000111</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1416,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000118</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1427,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1438,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000001048</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>195.9750000000404</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13">
@@ -1460,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>208.8750000000382</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14">
@@ -1471,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>210.6550000000407</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
@@ -1482,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>214.2200000000394</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
@@ -1493,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>209.7400000000453</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17">
@@ -1504,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>115.4650000000384</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -1515,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>125.9050000000389</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -1526,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>116.0200000000405</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -1537,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>120.7450000000391</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -1548,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>124.4700000000449</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1559,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>59.47000000000663</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23">
@@ -1570,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>67.50500000000649</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24">
@@ -1581,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>59.01500000000852</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
@@ -1592,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>66.88500000000751</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26">
@@ -1603,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>68.49000000001433</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27">
@@ -1614,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>170.4800000000123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28">
@@ -1625,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>173.2750000000106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
@@ -1636,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>175.1700000000128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30">
@@ -1647,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>173.5650000000096</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31">
@@ -1658,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>163.0550000000112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32">
@@ -1669,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>170.4800000000123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -1680,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>173.2750000000106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
@@ -1691,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>175.1700000000128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35">
@@ -1702,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>173.5650000000096</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36">
@@ -1713,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>163.0550000000112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37">
@@ -1724,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>195.9750000000404</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38">
@@ -1735,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>208.8750000000382</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39">
@@ -1746,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>210.6550000000407</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40">
@@ -1757,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>214.2200000000394</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41">
@@ -1768,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>209.7400000000453</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1815,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>70.4800000000123</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -1826,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>73.27500000001055</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -1837,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>75.17000000001281</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1848,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>73.5650000000096</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -1859,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>63.0550000000112</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -1870,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>95.97500000004038</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -1881,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>108.8750000000382</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -1892,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>110.6550000000407</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -1903,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>114.2200000000394</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
@@ -1914,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>109.7400000000453</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2126,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2137,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2148,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2159,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2170,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2239,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2266,7 +2110,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2277,7 +2121,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2288,7 +2132,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2299,7 +2143,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2313,7 +2157,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2321,10 +2165,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2332,10 +2176,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2343,10 +2187,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2354,10 +2198,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2365,10 +2209,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2376,10 +2220,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2387,10 +2231,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2398,10 +2242,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2409,10 +2253,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2423,53 +2267,9 @@
         <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
